--- a/source/guides/hrsa/uds-plus/StructureDefinition-de-identified-uds-plus-income-observation.xlsx
+++ b/source/guides/hrsa/uds-plus/StructureDefinition-de-identified-uds-plus-income-observation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="508">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-20T09:30:38-04:00</t>
+    <t>2025-03-28T22:48:43+11:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -962,7 +962,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-uds-plus-inc-1:All dateTime data elements should be truncated to a year only for de-identified resources. {$this is DateTime implies $this.toString().length() = 4}uds-plus-inc-2:All Period.start data elements should be truncated to a year only for de-identified resources. {$this is Period and Period.start.exists() implies $this.start.toString().length() = 4}uds-plus-inc-3:All Period.emd data elements should be truncated to a year only for de-identified resources. {$this is Period and Period.end.exists() implies $this.end.toString().length() = 4}uds-plus-inc-4:All Timing.event data elements should be truncated to a year only for de-identified resources. {$this is Timing and Timing.event.exists() implies $this.event.count() = 1}uds-plus-inc-5:All Timing.event data elements should be truncated to a year only for de-identified resources. {$this is Timing and Timing.event.exists() implies $this.event.first().toString().length() = 4}</t>
+uds-plus-inc-1:All dateTime data elements should be truncated to a year only for de-identified resources. {$this is DateTime implies $this.toString().length() = 4}uds-plus-inc-1a:All dateTime data elements should have valid year &gt; 1900 {$this is DateTime implies $this.toString() &gt;= '1900'}uds-plus-inc-1b:All dateTime data elements should have valid year &lt; 2030 {$this is DateTime implies $this.toString() &lt;= '2030'}uds-plus-inc-2:All Period.start data elements should be truncated to a year only for de-identified resources. {$this is Period and Period.start.exists() implies $this.start.toString().length() = 4}uds-plus-inc-2a:All Period.start data elements should have valid year &gt; 1900 {$this is Period and Period.start.exists() implies $this.start.toString() &gt;= '1900'}uds-plus-inc-2b:All Period.start data elements should have valid year &lt; 2030 {$this is Period and Period.start.exists() implies $this.start.toString() &lt;= '2030'}uds-plus-inc-3:All Period.emd data elements should be truncated to a year only for de-identified resources. {$this is Period and Period.end.exists() implies $this.end.toString().length() = 4}uds-plus-inc-3a:All Period.end data elements should have valid year &gt; 1900 {$this is Period and Period.end.exists() implies $this.end.toString() &gt;= '1900'}uds-plus-inc-3b:All Period.end data elements should have valid year &lt; 2030 {$this is Period and Period.end.exists() implies $this.end.toString() &lt;= '2030'}uds-plus-inc-4:All Timing.event data elements should be truncated to a year only for de-identified resources. {$this is Timing and Timing.event.exists() implies $this.event.count() = 1}uds-plus-inc-5:All Timing.event data elements should be truncated to a year only for de-identified resources. {$this is Timing and Timing.event.exists() implies $this.event.first().toString().length() = 4}uds-plus-res-5a:All Timing data elements should have valid year &gt; 1900 {$this is Timing and Timing.event.exists() implies $this.event.first().toString() &gt;= '1900'}uds-plus-res-5b:All Timing data elements should have valid year &lt; 2030 {$this is Timing and Timing.event.exists() implies $this.event.first().toString() &lt;= '2030'}</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -1071,6 +1071,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+uds-plus-inc-6:Income Ranges should be coded according to the UDS+ requirements to be between 101% and 150% or between 151% and 200% {$this is Range and Range.low.exists() and Range.high.exists() implies ((Range.low.value &gt;= 101 and Range.high.value &lt;= 150) or (Range.low.value &gt;= 151 and Range.high.value &lt;= 200))}uds-plus-inc-7:Income Ranges should be coded according to the UDS+ requirements when less than 100% {$this is Range and Range.low.exists().not() and Range.high.exists() implies (Range.high.value &lt;= 100)}uds-plus-inc-8:Income Ranges should be coded according to the UDS+ requirements when more than 200%, Quantity should include value(200), code(%) and comparator(&gt;) {$this is Quantity implies ($this.value &gt;= 200 and $this.code = '%' and $this.comparator = '&gt;')}</t>
+  </si>
+  <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
   </si>
   <si>
@@ -1095,7 +1099,7 @@
     <t>dataAbsentReason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {data-absent-reason}
+    <t xml:space="preserve">Extension {data-absent-reason|4.0.1}
 </t>
   </si>
   <si>
@@ -7015,33 +7019,33 @@
         <v>334</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>104</v>
+        <v>335</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7156,10 +7160,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7276,13 +7280,13 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="B45" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="B45" t="s" s="2">
-        <v>340</v>
-      </c>
       <c r="C45" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>82</v>
@@ -7304,13 +7308,13 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7385,7 +7389,7 @@
         <v>82</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7396,10 +7400,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7425,16 +7429,16 @@
         <v>199</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7462,10 +7466,10 @@
         <v>255</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>82</v>
@@ -7483,7 +7487,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7492,7 +7496,7 @@
         <v>92</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>104</v>
@@ -7507,7 +7511,7 @@
         <v>135</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7518,14 +7522,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7547,16 +7551,16 @@
         <v>199</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7584,10 +7588,10 @@
         <v>255</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>82</v>
@@ -7605,7 +7609,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7623,27 +7627,27 @@
         <v>82</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7666,19 +7670,19 @@
         <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -7727,7 +7731,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7748,10 +7752,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7762,10 +7766,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7791,13 +7795,13 @@
         <v>199</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7826,10 +7830,10 @@
         <v>215</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7847,7 +7851,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7865,27 +7869,27 @@
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7911,16 +7915,16 @@
         <v>199</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -7948,10 +7952,10 @@
         <v>215</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -7969,7 +7973,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7990,10 +7994,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8004,10 +8008,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8030,16 +8034,16 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8089,7 +8093,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8107,27 +8111,27 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8150,16 +8154,16 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8209,7 +8213,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8227,27 +8231,27 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8270,19 +8274,19 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8331,7 +8335,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8343,7 +8347,7 @@
         <v>82</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>82</v>
@@ -8352,10 +8356,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8366,10 +8370,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8484,10 +8488,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8604,14 +8608,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8633,10 +8637,10 @@
         <v>137</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>154</v>
@@ -8691,7 +8695,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8726,10 +8730,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8752,13 +8756,13 @@
         <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8809,7 +8813,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8818,7 +8822,7 @@
         <v>92</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>104</v>
@@ -8830,10 +8834,10 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -8844,10 +8848,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8870,13 +8874,13 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8927,7 +8931,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8936,7 +8940,7 @@
         <v>92</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>104</v>
@@ -8948,10 +8952,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -8962,10 +8966,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8991,16 +8995,16 @@
         <v>199</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -9028,10 +9032,10 @@
         <v>116</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>82</v>
@@ -9049,7 +9053,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9067,13 +9071,13 @@
         <v>82</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9084,10 +9088,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9113,16 +9117,16 @@
         <v>199</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9150,10 +9154,10 @@
         <v>215</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
@@ -9171,7 +9175,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9189,13 +9193,13 @@
         <v>82</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9206,10 +9210,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9232,17 +9236,17 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9291,7 +9295,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9315,7 +9319,7 @@
         <v>82</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9326,10 +9330,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9355,10 +9359,10 @@
         <v>235</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9409,7 +9413,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9430,10 +9434,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9444,10 +9448,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9470,16 +9474,16 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9529,7 +9533,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9550,10 +9554,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9564,10 +9568,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9590,16 +9594,16 @@
         <v>93</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9649,7 +9653,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9670,10 +9674,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -9684,10 +9688,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9710,19 +9714,19 @@
         <v>93</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -9771,7 +9775,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9792,10 +9796,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -9806,10 +9810,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9924,10 +9928,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10044,14 +10048,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10073,10 +10077,10 @@
         <v>137</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N68" t="s" s="2">
         <v>154</v>
@@ -10131,7 +10135,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10166,10 +10170,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10195,13 +10199,13 @@
         <v>199</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>213</v>
@@ -10253,7 +10257,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>92</v>
@@ -10271,7 +10275,7 @@
         <v>82</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>220</v>
@@ -10288,10 +10292,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10314,16 +10318,16 @@
         <v>93</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M70" t="s" s="2">
         <v>331</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>333</v>
@@ -10375,7 +10379,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10393,27 +10397,27 @@
         <v>82</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10439,16 +10443,16 @@
         <v>199</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10476,10 +10480,10 @@
         <v>255</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>82</v>
@@ -10497,7 +10501,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10506,7 +10510,7 @@
         <v>92</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>104</v>
@@ -10521,7 +10525,7 @@
         <v>135</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10532,14 +10536,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10561,16 +10565,16 @@
         <v>199</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -10598,10 +10602,10 @@
         <v>255</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>82</v>
@@ -10619,7 +10623,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10637,27 +10641,27 @@
         <v>82</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10683,16 +10687,16 @@
         <v>82</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -10741,7 +10745,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10762,10 +10766,10 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
